--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/79_Yalova_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/79_Yalova_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD64835-4BE3-4CD1-ABDD-7622BA4F545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{790475B5-B5A9-4FFC-9326-BA6EDE3FCFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{041C9CC2-F601-41DF-BEDA-530E87671764}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{8CA8AAA4-E1DF-4937-A733-E91EF13164CB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="146" r:id="rId1"/>
@@ -899,14 +899,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{164F389D-BE0F-4C20-8C9E-87DE417B30CD}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3A8C74DA-798C-4D8D-A941-30843027F754}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{41786CFE-F4A4-49B2-8DDC-1F1726EA7B88}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{BD3CC40D-7666-4C39-AB15-367CCD099D56}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{32A277C8-321A-4E70-AAD2-79205BBDBEDE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8EA740B3-30EB-4235-AC7E-736E5F932558}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{1B3901E0-3815-42FA-B79B-A0A86D8D3770}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3884583A-AE95-4B10-B9A5-4F15BA6E17A4}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{68A9BBA6-95B2-489E-8B2D-C4DB92BD472E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F9824B51-3DA9-4C89-A32C-9F4377F82013}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{AC09AC11-1E8B-4DCD-BEEF-BAEBBED3A761}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{98865D0A-F08B-47C3-BAA4-BF6913235E23}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{134C9F11-544D-4E77-AEF6-28E8E9EA2F39}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{69E837D7-1B98-4DA2-9857-82B49E6C375C}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1A03D05E-A51E-4121-A067-CBD16DE478C0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E04C0D42-6966-4C01-9FB1-8611A0677CC7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0012EADC-4EDC-472B-B6EA-49ED02706D1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B014F4-2451-44E8-BB0A-0052722CF915}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2559,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0210940-AF79-406D-98CF-E819DC5DCC5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD236F5-054A-490A-8366-F20CEEA0CA87}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3838,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB305C5-B3A4-4DC2-87DF-153A0449B7A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF13BB-C646-41A0-8A9E-977A761018A5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5117,7 +5117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829D2F6B-62DF-445E-B07B-77683508AA5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96713DFF-36FF-43CC-9879-2FD9D83318B1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6390,7 +6390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B9FEA-BE1D-406A-A4D4-D0FAB875ABFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A40536-FF35-471D-B640-1D7E79B2137C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7675,7 +7675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EDAED1-332C-4AC8-AA1D-4FF33AF15943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CF1656-A386-41DD-8EE2-3D2447DB9BC9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8958,7 +8958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6807510E-5A7C-4B98-B3FC-28BCAC5F5B25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B192B0-4989-4537-98E9-45A890F81CB6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10237,7 +10237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8262340C-6C8B-4C31-B4A9-759285F59B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C45C2D4-5858-428D-BF04-A49AC8168B00}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11518,7 +11518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A67B16-BF06-4868-A009-5F6CDCFF5939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3260C129-6597-4DFB-A548-F85989F61417}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12799,7 +12799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B332901-5629-473D-80D0-2B8A41561D75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FB675-EFB7-40FC-9FA1-9DED44B8EE18}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14082,7 +14082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBCF963-D898-46FB-A34D-8DCB85A4E3E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093761D8-E9AF-4E50-AF25-87E0685554B4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15365,7 +15365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADEFD37-68A4-427D-82A4-279ACEBBC771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F4D385-1A96-488C-94A9-EC73B661C751}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
